--- a/epis.xlsx
+++ b/epis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCES\Documents\GitHub\epistemologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3255773C-B78C-41F0-93AD-3B5786890A11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D3C08C-FF96-42AC-9688-D0F5257E74A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>Mtext</t>
   </si>
@@ -275,9 +275,6 @@
     <t>PORCENTAJES</t>
   </si>
   <si>
-    <t>Controles de lectura primer corte</t>
-  </si>
-  <si>
     <t>Controles de lectura sugundo corte</t>
   </si>
   <si>
@@ -296,27 +293,12 @@
     <t>Recordatorio</t>
   </si>
   <si>
-    <t>Taller primer corte</t>
-  </si>
-  <si>
-    <t>Taller segundo corte</t>
-  </si>
-  <si>
     <t>Taller tercer corte</t>
   </si>
   <si>
     <t>Tema</t>
   </si>
   <si>
-    <t>Pregunta</t>
-  </si>
-  <si>
-    <t>Presentación general del curso y del cuestionario sobre susu disciplina</t>
-  </si>
-  <si>
-    <t>Discusión en clase con base en Hubbs, G., O’Rourke, M., &amp; Orzack, S. H. (2020))</t>
-  </si>
-  <si>
     <t>¿Qué buscan con sus estudios de maestría?</t>
   </si>
   <si>
@@ -326,25 +308,46 @@
     <t>¿Qué retos enfrenta la investigación interdisciplinar?</t>
   </si>
   <si>
-    <t>Presentación y discusión con base en Krohn, W. (2017)</t>
-  </si>
-  <si>
     <t>¿Cómo se investiga en su disciplina base?</t>
   </si>
   <si>
-    <t>Retorno a la discusión con base en Hubbs, G., O’Rourke, M., &amp; Orzack, S. H. (2020))</t>
-  </si>
-  <si>
-    <t>La interdisciplinariedad con base en Frodeman, R. (2013) Cap 3</t>
-  </si>
-  <si>
-    <t>La disciplinariedad con base en Frodeman, R. (2013) Cap 3</t>
-  </si>
-  <si>
     <t>¿Qué cambios implica la investigación interdisciplinar?</t>
   </si>
   <si>
     <t>¿Cómo formular una pregunta de investigación?</t>
+  </si>
+  <si>
+    <t>Discusión en clase con base Michael O’Rourke &amp; Stephen Crowley (2020) y Marisa Rinkus &amp; Stephanie Vasko (2020)</t>
+  </si>
+  <si>
+    <t>La disciplinariedad con base en Richard Frodeman (2013) Cap 2</t>
+  </si>
+  <si>
+    <t>La interdisciplinariedad con base en Richard Frodeman (2013) Cap 3</t>
+  </si>
+  <si>
+    <t>Revisión de la discusión con base Michael O’Rourke &amp; Stephen Crowley (2020) y Marisa Rinkus &amp; Stephanie Vasko (2020)</t>
+  </si>
+  <si>
+    <t>Presentación y discusión con base en Wolfagan Krohn (2017)</t>
+  </si>
+  <si>
+    <t>Presentación general del curso y del cuestionario sobre su disciplina</t>
+  </si>
+  <si>
+    <t>Pregunta central</t>
+  </si>
+  <si>
+    <t>Reseña crítica</t>
+  </si>
+  <si>
+    <t>Participación activa</t>
+  </si>
+  <si>
+    <t>Ensayo</t>
+  </si>
+  <si>
+    <t>70%</t>
   </si>
 </sst>
 </file>
@@ -589,22 +592,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -624,14 +618,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -982,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1016,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
@@ -1039,10 +1042,10 @@
       <c r="C2" s="5"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
@@ -1056,16 +1059,16 @@
         <v>44215</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B18" si="0">PROPER(TEXT(A3,"[$-240a] dddd dd mmmm"))</f>
+        <f t="shared" ref="B3:B7" si="0">PROPER(TEXT(A3,"[$-240a] dddd dd mmmm"))</f>
         <v xml:space="preserve"> Martes 19 Enero</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="9"/>
@@ -1085,10 +1088,10 @@
       <c r="C4" s="5"/>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="9"/>
@@ -1108,10 +1111,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1130,10 +1133,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1152,10 +1155,10 @@
       <c r="C7" s="5"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
@@ -1353,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908C0474-4D48-F842-927C-22B5DB315036}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1377,31 +1380,31 @@
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="L1" s="2"/>
     </row>
@@ -1417,14 +1420,14 @@
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>6</v>
@@ -1433,9 +1436,7 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17" t="e">
@@ -1456,9 +1457,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="e">
@@ -1479,9 +1478,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17" t="e">
@@ -1502,9 +1499,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17" t="e">
@@ -1525,9 +1520,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="e">
@@ -1548,9 +1541,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="e">
@@ -1571,9 +1562,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17" t="e">
@@ -1594,9 +1583,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17" t="e">
@@ -1617,9 +1604,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="e">
@@ -1640,9 +1625,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="e">
@@ -1663,9 +1646,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="e">
@@ -1686,9 +1667,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="e">
@@ -1709,9 +1688,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="e">
@@ -1732,9 +1709,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17" t="e">
@@ -1755,9 +1730,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="e">
@@ -1778,9 +1751,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17" t="e">
@@ -1852,170 +1823,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="15" t="s">
         <v>67</v>
       </c>
@@ -2037,10 +2008,10 @@
       <c r="M7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="33"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="15" t="s">
         <v>63</v>
       </c>
@@ -2055,15 +2026,15 @@
       <c r="A8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="14" t="s">
         <v>14</v>
       </c>
@@ -2073,8 +2044,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13" t="s">
         <v>13</v>
@@ -2085,15 +2056,15 @@
       <c r="A9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2103,8 +2074,8 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="13" t="s">
         <v>13</v>
@@ -2115,15 +2086,15 @@
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="25" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="14" t="s">
         <v>14</v>
       </c>
@@ -2133,8 +2104,8 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="13" t="s">
         <v>13</v>
@@ -2145,15 +2116,15 @@
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="14" t="s">
         <v>14</v>
       </c>
@@ -2163,8 +2134,8 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="13" t="s">
         <v>13</v>
@@ -2175,15 +2146,15 @@
       <c r="A12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="14" t="s">
         <v>14</v>
       </c>
@@ -2193,8 +2164,8 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="13" t="s">
         <v>13</v>
@@ -2205,15 +2176,15 @@
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
@@ -2223,8 +2194,8 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="13" t="s">
         <v>13</v>
@@ -2235,15 +2206,15 @@
       <c r="A14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="25" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="14" t="s">
         <v>14</v>
       </c>
@@ -2253,8 +2224,8 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="13" t="s">
         <v>13</v>
@@ -2265,15 +2236,15 @@
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="25" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="14" t="s">
         <v>14</v>
       </c>
@@ -2283,8 +2254,8 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="13" t="s">
         <v>13</v>
@@ -2295,15 +2266,15 @@
       <c r="A16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="14" t="s">
         <v>14</v>
       </c>
@@ -2313,8 +2284,8 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="13" t="s">
         <v>13</v>
@@ -2325,15 +2296,15 @@
       <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="14" t="s">
         <v>14</v>
       </c>
@@ -2343,8 +2314,8 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="13" t="s">
         <v>13</v>
@@ -2355,15 +2326,15 @@
       <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="14" t="s">
         <v>14</v>
       </c>
@@ -2373,8 +2344,8 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="13" t="s">
         <v>13</v>
@@ -2385,15 +2356,15 @@
       <c r="A19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="25" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2374,8 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="13" t="s">
         <v>13</v>
@@ -2415,15 +2386,15 @@
       <c r="A20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="25" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="14" t="s">
         <v>14</v>
       </c>
@@ -2433,8 +2404,8 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="13" t="s">
         <v>13</v>
@@ -2445,15 +2416,15 @@
       <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="14" t="s">
         <v>14</v>
       </c>
@@ -2463,8 +2434,8 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="29"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="13" t="s">
         <v>13</v>
@@ -2475,15 +2446,15 @@
       <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="25" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="14" t="s">
         <v>14</v>
       </c>
@@ -2493,8 +2464,8 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="13" t="s">
         <v>13</v>
@@ -2505,15 +2476,15 @@
       <c r="A23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="25" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="27"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="14" t="s">
         <v>14</v>
       </c>
@@ -2523,8 +2494,8 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="29"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="13" t="s">
         <v>13</v>
@@ -2532,25 +2503,86 @@
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:R5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:R1"/>
     <mergeCell ref="A2:C2"/>
@@ -2558,67 +2590,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/epis.xlsx
+++ b/epis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCES\Documents\GitHub\epistemologia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/epistemologia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D3C08C-FF96-42AC-9688-D0F5257E74A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B638F83-CF86-A446-9980-3BC8799506C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
     <numFmt numFmtId="165" formatCode="[$-240A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,13 +592,22 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -618,27 +627,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{78203A9A-9983-1045-99E2-56CF051A0148}"/>
   </cellStyles>
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -985,27 +985,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="36.125" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
-    <col min="6" max="6" width="29.375" customWidth="1"/>
-    <col min="7" max="7" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="21.625" customWidth="1"/>
-    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="31.5">
+    <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>44214</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="50.1" customHeight="1">
+    <row r="3" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>44215</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="50.1" customHeight="1">
+    <row r="4" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>44216</v>
       </c>
@@ -1087,11 +1087,11 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3"/>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
+      <c r="E4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="9"/>
@@ -1100,7 +1100,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="50.1" customHeight="1">
+    <row r="5" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>44217</v>
       </c>
@@ -1110,19 +1110,20 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="74.099999999999994" customHeight="1">
+    <row r="6" spans="1:14" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>44218</v>
       </c>
@@ -1144,7 +1145,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="50.1" customHeight="1">
+    <row r="7" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>44219</v>
       </c>
@@ -1168,7 +1169,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="50.1" customHeight="1">
+    <row r="8" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
@@ -1181,7 +1182,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="50.1" customHeight="1">
+    <row r="9" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
@@ -1194,7 +1195,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="50.1" customHeight="1">
+    <row r="10" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
@@ -1207,7 +1208,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="50.1" customHeight="1">
+    <row r="11" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
@@ -1221,7 +1222,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="50.1" customHeight="1">
+    <row r="12" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
@@ -1235,7 +1236,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="99" customHeight="1">
+    <row r="13" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
@@ -1249,7 +1250,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="50.1" customHeight="1">
+    <row r="14" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
@@ -1263,7 +1264,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="50.1" customHeight="1">
+    <row r="15" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
@@ -1277,7 +1278,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="50.1" customHeight="1">
+    <row r="16" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
@@ -1291,7 +1292,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="50.1" customHeight="1">
+    <row r="17" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
@@ -1305,7 +1306,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="50.1" customHeight="1">
+    <row r="18" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
@@ -1319,7 +1320,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="50.1" customHeight="1">
+    <row r="19" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
@@ -1333,7 +1334,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="50.1" customHeight="1">
+    <row r="20" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -1356,26 +1357,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908C0474-4D48-F842-927C-22B5DB315036}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20.875" customWidth="1"/>
+    <col min="11" max="12" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1409,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1435,7 +1436,7 @@
       <c r="J2" s="8"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1456,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -1477,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1498,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1519,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1540,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1561,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1582,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1603,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -1624,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1645,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1666,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1687,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1708,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -1729,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1750,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1799,194 +1800,194 @@
       <selection activeCell="B23" sqref="B8:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="11" customWidth="1"/>
     <col min="3" max="3" width="1.5" style="11" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="32" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="11" customWidth="1"/>
     <col min="7" max="7" width="45" style="11" customWidth="1"/>
     <col min="8" max="8" width="16" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="11" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="11" customWidth="1"/>
     <col min="12" max="12" width="16" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="6.875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="6.125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="13.625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="11"/>
+    <col min="13" max="13" width="10.6640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="24" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="24" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="26" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="26" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="27" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="15" t="s">
         <v>67</v>
       </c>
@@ -2008,10 +2009,10 @@
       <c r="M7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="30"/>
+      <c r="O7" s="33"/>
       <c r="P7" s="15" t="s">
         <v>63</v>
       </c>
@@ -2022,19 +2023,19 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="14" t="s">
         <v>14</v>
       </c>
@@ -2044,27 +2045,27 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="33" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2074,27 +2075,27 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="33" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="14" t="s">
         <v>14</v>
       </c>
@@ -2104,27 +2105,27 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="33" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="35"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="14" t="s">
         <v>14</v>
       </c>
@@ -2134,27 +2135,27 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="14" t="s">
         <v>14</v>
       </c>
@@ -2164,27 +2165,27 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="33" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
@@ -2194,27 +2195,27 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="33" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="14" t="s">
         <v>14</v>
       </c>
@@ -2224,27 +2225,27 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="14" t="s">
         <v>14</v>
       </c>
@@ -2254,27 +2255,27 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R15" s="12"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="33" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="14" t="s">
         <v>14</v>
       </c>
@@ -2284,27 +2285,27 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="33" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="35"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="14" t="s">
         <v>14</v>
       </c>
@@ -2314,27 +2315,27 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="33" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="14" t="s">
         <v>14</v>
       </c>
@@ -2344,27 +2345,27 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R18" s="12"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="33" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2374,27 +2375,27 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="33" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="35"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="14" t="s">
         <v>14</v>
       </c>
@@ -2404,27 +2405,27 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="33" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="35"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="14" t="s">
         <v>14</v>
       </c>
@@ -2434,27 +2435,27 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="33" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="14" t="s">
         <v>14</v>
       </c>
@@ -2464,27 +2465,27 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="33" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="35"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="14" t="s">
         <v>14</v>
       </c>
@@ -2494,34 +2495,95 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="13" t="s">
         <v>13</v>
       </c>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="38" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="N21:O21"/>
     <mergeCell ref="A24:N24"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:F22"/>
@@ -2529,67 +2591,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
